--- a/LQDA.xlsx
+++ b/LQDA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03FE529-DF64-4EE4-B28C-F8DFC3D95813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCA647-AA9C-4911-8CBC-CAC8D7ADB633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8265" yWindow="315" windowWidth="18660" windowHeight="13665" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="4305" windowWidth="21660" windowHeight="11175" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
     <t>9593066 - Process to prepare treprostinil - IPR petition did not establish reasonable likelihood (failed).</t>
   </si>
   <si>
-    <t xml:space="preserve">  District court litigation with Judge Andrews</t>
+    <t xml:space="preserve">  Delaware district court litigation with Judge Andrews</t>
   </si>
 </sst>
 </file>
@@ -531,6 +531,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -591,12 +597,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -705,55 +705,56 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1976,7 +1977,7 @@
         <v>3944.9757655666108</v>
       </c>
       <c r="AU5" s="4">
-        <f t="shared" ref="AU5:AW5" si="12">AT5*0.9</f>
+        <f t="shared" ref="AU5:AV5" si="12">AT5*0.9</f>
         <v>3550.4781890099498</v>
       </c>
       <c r="AV5" s="4">
@@ -2465,7 +2466,7 @@
         <v>390634.47940073162</v>
       </c>
       <c r="AU9" s="4">
-        <f t="shared" ref="AU9:AW9" si="45">AU7*0.85</f>
+        <f t="shared" ref="AU9:AV9" si="45">AU7*0.85</f>
         <v>483310.40646065841</v>
       </c>
       <c r="AV9" s="4">
@@ -2593,7 +2594,7 @@
         <v>1093.4643138232329</v>
       </c>
       <c r="AU10" s="4">
-        <f t="shared" ref="AU10:AW10" si="51">AT10*0.8</f>
+        <f t="shared" ref="AU10:AV10" si="51">AT10*0.8</f>
         <v>874.77145105858642</v>
       </c>
       <c r="AV10" s="4">
@@ -2677,7 +2678,7 @@
         <v>51673.04</v>
       </c>
       <c r="AJ11" s="4">
-        <f t="shared" ref="AJ11:AW11" si="54">AI11*1.03</f>
+        <f t="shared" ref="AJ11:AV11" si="54">AI11*1.03</f>
         <v>53223.231200000002</v>
       </c>
       <c r="AK11" s="4">
@@ -3785,7 +3786,7 @@
         <v>52465.283000000003</v>
       </c>
       <c r="AU19" s="4">
-        <f t="shared" ref="AU19:AW19" si="173">AT19</f>
+        <f t="shared" ref="AU19:AV19" si="173">AT19</f>
         <v>52465.283000000003</v>
       </c>
       <c r="AV19" s="4">
@@ -5351,7 +5352,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5361,7 +5362,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>151</v>
       </c>
     </row>
